--- a/backend-app/public/imports/tanphu.xlsx
+++ b/backend-app/public/imports/tanphu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAM\Laradock\ttungbmt\PROJECT\HCMGIS_Caytrong\backend-app\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROGRAM\Laradock\ttungbmt\PROJECT\HCMGIS_Caytrong\backend-app\public\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244AABC8-67FB-4BEE-8716-349B3F9BE0D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BE9379-83DF-4A01-A6E4-F5CD0E1745E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="2520" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NONG HO" sheetId="1" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="200">
   <si>
     <t>stt</t>
   </si>
@@ -780,150 +780,6 @@
   </si>
   <si>
     <t>Mi tac @ 20EC</t>
-  </si>
-  <si>
-    <t>28840</t>
-  </si>
-  <si>
-    <t>28841</t>
-  </si>
-  <si>
-    <t>28842</t>
-  </si>
-  <si>
-    <t>28843</t>
-  </si>
-  <si>
-    <t>28844</t>
-  </si>
-  <si>
-    <t>28845</t>
-  </si>
-  <si>
-    <t>28846</t>
-  </si>
-  <si>
-    <t>28847</t>
-  </si>
-  <si>
-    <t>28848</t>
-  </si>
-  <si>
-    <t>28849</t>
-  </si>
-  <si>
-    <t>28850</t>
-  </si>
-  <si>
-    <t>28851</t>
-  </si>
-  <si>
-    <t>28852</t>
-  </si>
-  <si>
-    <t>28853</t>
-  </si>
-  <si>
-    <t>28854</t>
-  </si>
-  <si>
-    <t>28855</t>
-  </si>
-  <si>
-    <t>28856</t>
-  </si>
-  <si>
-    <t>28857</t>
-  </si>
-  <si>
-    <t>28858</t>
-  </si>
-  <si>
-    <t>28859</t>
-  </si>
-  <si>
-    <t>28860</t>
-  </si>
-  <si>
-    <t>28861</t>
-  </si>
-  <si>
-    <t>28862</t>
-  </si>
-  <si>
-    <t>28863</t>
-  </si>
-  <si>
-    <t>28864</t>
-  </si>
-  <si>
-    <t>28865</t>
-  </si>
-  <si>
-    <t>28866</t>
-  </si>
-  <si>
-    <t>28867</t>
-  </si>
-  <si>
-    <t>28868</t>
-  </si>
-  <si>
-    <t>28869</t>
-  </si>
-  <si>
-    <t>28870</t>
-  </si>
-  <si>
-    <t>28871</t>
-  </si>
-  <si>
-    <t>28872</t>
-  </si>
-  <si>
-    <t>28873</t>
-  </si>
-  <si>
-    <t>28874</t>
-  </si>
-  <si>
-    <t>28875</t>
-  </si>
-  <si>
-    <t>28876</t>
-  </si>
-  <si>
-    <t>28877</t>
-  </si>
-  <si>
-    <t>28878</t>
-  </si>
-  <si>
-    <t>28879</t>
-  </si>
-  <si>
-    <t>28880</t>
-  </si>
-  <si>
-    <t>28881</t>
-  </si>
-  <si>
-    <t>28882</t>
-  </si>
-  <si>
-    <t>28883</t>
-  </si>
-  <si>
-    <t>28884</t>
-  </si>
-  <si>
-    <t>28885</t>
-  </si>
-  <si>
-    <t>28886</t>
-  </si>
-  <si>
-    <t>28887</t>
   </si>
 </sst>
 </file>
@@ -1953,9 +1809,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,11 +1867,11 @@
       <c r="D2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>200</v>
+      <c r="E2" s="5">
+        <v>28840</v>
       </c>
       <c r="F2" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2031,11 +1887,11 @@
       <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>201</v>
+      <c r="E3" s="5">
+        <v>28840</v>
       </c>
       <c r="F3" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>93</v>
@@ -2054,11 +1910,11 @@
       <c r="D4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>202</v>
+      <c r="E4" s="5">
+        <v>28840</v>
       </c>
       <c r="F4" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>97</v>
@@ -2077,11 +1933,11 @@
       <c r="D5" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>203</v>
+      <c r="E5" s="5">
+        <v>28840</v>
       </c>
       <c r="F5" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>105</v>
@@ -2100,11 +1956,11 @@
       <c r="D6" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>204</v>
+      <c r="E6" s="5">
+        <v>28840</v>
       </c>
       <c r="F6" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2120,11 +1976,11 @@
       <c r="D7" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>205</v>
+      <c r="E7" s="5">
+        <v>28840</v>
       </c>
       <c r="F7" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2140,11 +1996,11 @@
       <c r="D8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>206</v>
+      <c r="E8" s="5">
+        <v>28840</v>
       </c>
       <c r="F8" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2160,11 +2016,11 @@
       <c r="D9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>207</v>
+      <c r="E9" s="5">
+        <v>28840</v>
       </c>
       <c r="F9" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2180,11 +2036,11 @@
       <c r="D10" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>208</v>
+      <c r="E10" s="5">
+        <v>28840</v>
       </c>
       <c r="F10" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2200,11 +2056,11 @@
       <c r="D11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>209</v>
+      <c r="E11" s="5">
+        <v>28840</v>
       </c>
       <c r="F11" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>125</v>
@@ -2223,11 +2079,11 @@
       <c r="D12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>210</v>
+      <c r="E12" s="5">
+        <v>28840</v>
       </c>
       <c r="F12" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>127</v>
@@ -2246,11 +2102,11 @@
       <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>211</v>
+      <c r="E13" s="5">
+        <v>28840</v>
       </c>
       <c r="F13" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,11 +2122,11 @@
       <c r="D14" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>212</v>
+      <c r="E14" s="5">
+        <v>28840</v>
       </c>
       <c r="F14" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2286,11 +2142,11 @@
       <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>213</v>
+      <c r="E15" s="5">
+        <v>28840</v>
       </c>
       <c r="F15" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2306,11 +2162,11 @@
       <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>214</v>
+      <c r="E16" s="5">
+        <v>28840</v>
       </c>
       <c r="F16" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,11 +2182,11 @@
       <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>215</v>
+      <c r="E17" s="5">
+        <v>28840</v>
       </c>
       <c r="F17" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2346,11 +2202,11 @@
       <c r="D18" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>216</v>
+      <c r="E18" s="5">
+        <v>28840</v>
       </c>
       <c r="F18" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2366,11 +2222,11 @@
       <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>217</v>
+      <c r="E19" s="5">
+        <v>28840</v>
       </c>
       <c r="F19" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2386,11 +2242,11 @@
       <c r="D20" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>218</v>
+      <c r="E20" s="5">
+        <v>28840</v>
       </c>
       <c r="F20" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,11 +2262,11 @@
       <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>219</v>
+      <c r="E21" s="5">
+        <v>28840</v>
       </c>
       <c r="F21" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,11 +2282,11 @@
       <c r="D22" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>220</v>
+      <c r="E22" s="5">
+        <v>28840</v>
       </c>
       <c r="F22" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2446,11 +2302,11 @@
       <c r="D23" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>221</v>
+      <c r="E23" s="5">
+        <v>28840</v>
       </c>
       <c r="F23" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2466,11 +2322,11 @@
       <c r="D24" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>222</v>
+      <c r="E24" s="5">
+        <v>28840</v>
       </c>
       <c r="F24" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,11 +2342,11 @@
       <c r="D25" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>223</v>
+      <c r="E25" s="5">
+        <v>28840</v>
       </c>
       <c r="F25" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2506,11 +2362,11 @@
       <c r="D26" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>224</v>
+      <c r="E26" s="5">
+        <v>28840</v>
       </c>
       <c r="F26" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2526,11 +2382,11 @@
       <c r="D27" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>225</v>
+      <c r="E27" s="5">
+        <v>28840</v>
       </c>
       <c r="F27" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2546,11 +2402,11 @@
       <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>226</v>
+      <c r="E28" s="5">
+        <v>28840</v>
       </c>
       <c r="F28" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2566,11 +2422,11 @@
       <c r="D29" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>227</v>
+      <c r="E29" s="5">
+        <v>28840</v>
       </c>
       <c r="F29" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2586,11 +2442,11 @@
       <c r="D30" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>228</v>
+      <c r="E30" s="5">
+        <v>28840</v>
       </c>
       <c r="F30" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,11 +2462,11 @@
       <c r="D31" t="s">
         <v>123</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>229</v>
+      <c r="E31" s="5">
+        <v>28840</v>
       </c>
       <c r="F31" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2626,11 +2482,11 @@
       <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>230</v>
+      <c r="E32" s="5">
+        <v>28840</v>
       </c>
       <c r="F32" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,11 +2502,11 @@
       <c r="D33" t="s">
         <v>82</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>231</v>
+      <c r="E33" s="5">
+        <v>28840</v>
       </c>
       <c r="F33" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2666,11 +2522,11 @@
       <c r="D34" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>232</v>
+      <c r="E34" s="5">
+        <v>28840</v>
       </c>
       <c r="F34" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2686,11 +2542,11 @@
       <c r="D35" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>233</v>
+      <c r="E35" s="5">
+        <v>28840</v>
       </c>
       <c r="F35" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G35" s="6"/>
     </row>
@@ -2707,11 +2563,11 @@
       <c r="D36" t="s">
         <v>92</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>234</v>
+      <c r="E36" s="5">
+        <v>28840</v>
       </c>
       <c r="F36" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,11 +2583,11 @@
       <c r="D37" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>235</v>
+      <c r="E37" s="5">
+        <v>28840</v>
       </c>
       <c r="F37" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2747,11 +2603,11 @@
       <c r="D38" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>236</v>
+      <c r="E38" s="5">
+        <v>28840</v>
       </c>
       <c r="F38" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2767,11 +2623,11 @@
       <c r="D39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>237</v>
+      <c r="E39" s="5">
+        <v>28840</v>
       </c>
       <c r="F39" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2787,11 +2643,11 @@
       <c r="D40" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>238</v>
+      <c r="E40" s="5">
+        <v>28840</v>
       </c>
       <c r="F40" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,11 +2663,11 @@
       <c r="D41" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>239</v>
+      <c r="E41" s="5">
+        <v>28840</v>
       </c>
       <c r="F41" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2827,11 +2683,11 @@
       <c r="D42" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>240</v>
+      <c r="E42" s="5">
+        <v>28840</v>
       </c>
       <c r="F42" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2847,11 +2703,11 @@
       <c r="D43" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>241</v>
+      <c r="E43" s="5">
+        <v>28840</v>
       </c>
       <c r="F43" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,11 +2723,11 @@
       <c r="D44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>242</v>
+      <c r="E44" s="5">
+        <v>28840</v>
       </c>
       <c r="F44" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2887,11 +2743,11 @@
       <c r="D45" t="s">
         <v>92</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>243</v>
+      <c r="E45" s="5">
+        <v>28840</v>
       </c>
       <c r="F45" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2907,11 +2763,11 @@
       <c r="D46" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>244</v>
+      <c r="E46" s="5">
+        <v>28840</v>
       </c>
       <c r="F46" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2927,11 +2783,11 @@
       <c r="D47" t="s">
         <v>92</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>245</v>
+      <c r="E47" s="5">
+        <v>28840</v>
       </c>
       <c r="F47" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2947,11 +2803,11 @@
       <c r="D48" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>246</v>
+      <c r="E48" s="5">
+        <v>28840</v>
       </c>
       <c r="F48" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,11 +2823,11 @@
       <c r="D49" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>247</v>
+      <c r="E49" s="5">
+        <v>28840</v>
       </c>
       <c r="F49" s="5">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>198</v>
@@ -2989,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
